--- a/miniproject/template/Lectures/Lecture 1.xlsx
+++ b/miniproject/template/Lectures/Lecture 1.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\FYP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50077410-0AC1-412B-9064-CBDBBB03554F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E36A55-1ED8-487B-AEA4-5E7CA74894E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -101,9 +112,6 @@
   </si>
   <si>
     <t>He is snap-happy</t>
-  </si>
-  <si>
-    <t>Too young to understand</t>
   </si>
   <si>
     <t>Neglected members</t>
@@ -1075,22 +1083,25 @@
     <t>She does not look fashionable in short hair</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Too young to understand(test)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1138,7 +1149,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1558,11 +1569,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="1"/>
     <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1585,84 +1596,84 @@
     <col min="34" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="26.4">
       <c r="A1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
@@ -1672,29 +1683,29 @@
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
     </row>
-    <row r="2" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="39.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J2" s="12">
         <v>1</v>
@@ -1740,13 +1751,13 @@
         <v>What is the meaning of "Wet behind the ears"?</v>
       </c>
       <c r="V2" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="W2" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>220</v>
       </c>
       <c r="Y2" s="5" t="str">
         <f>IF(L2=1,CONCATENATE("L4",$F2),"")</f>
@@ -1764,29 +1775,29 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="39.6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="J3" s="12">
         <v>1</v>
@@ -1850,29 +1861,29 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="39.6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="J4" s="12">
         <v>0</v>
@@ -1918,13 +1929,13 @@
         <v>What is the meaning of "I am between jobs"?</v>
       </c>
       <c r="V4" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="W4" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="Y4" s="5" t="str">
         <f t="shared" si="6"/>
@@ -1942,29 +1953,29 @@
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
     </row>
-    <row r="5" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="39.6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5" s="12">
         <v>1</v>
@@ -2028,29 +2039,29 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="39.6">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
@@ -2096,13 +2107,13 @@
         <v>What is the meaning of "He is good under the hood"?</v>
       </c>
       <c r="V6" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="W6" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="X6" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="Y6" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2120,29 +2131,29 @@
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
     </row>
-    <row r="7" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="39.6">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="J7" s="12">
         <v>1</v>
@@ -2206,29 +2217,29 @@
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
     </row>
-    <row r="8" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="39.6">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="J8" s="12">
         <v>0</v>
@@ -2274,13 +2285,13 @@
         <v>What is the meaning of "He is on the wrong side of the law"?</v>
       </c>
       <c r="V8" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="X8" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="Y8" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2298,29 +2309,29 @@
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
     </row>
-    <row r="9" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="39.6">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="J9" s="12">
         <v>1</v>
@@ -2366,13 +2377,13 @@
         <v>What is the meaning of "She is on the wrong side of 50"?</v>
       </c>
       <c r="V9" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="W9" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="W9" s="10" t="s">
+      <c r="X9" s="10" t="s">
         <v>231</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>232</v>
       </c>
       <c r="Y9" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2390,12 +2401,12 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="39.6">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -2405,16 +2416,16 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="J10" s="12">
         <v>1</v>
@@ -2478,12 +2489,12 @@
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
     </row>
-    <row r="11" spans="1:33" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="31.5" customHeight="1">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -2493,16 +2504,16 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="J11" s="12">
         <v>1</v>
@@ -2566,12 +2577,12 @@
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
     </row>
-    <row r="12" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="39.6">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -2581,16 +2592,16 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="J12" s="12">
         <v>1</v>
@@ -2654,12 +2665,12 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
     </row>
-    <row r="13" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="39.6">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -2669,16 +2680,16 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="J13" s="12">
         <v>1</v>
@@ -2742,12 +2753,12 @@
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
     </row>
-    <row r="14" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="39.6">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -2757,16 +2768,16 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="J14" s="12">
         <v>1</v>
@@ -2812,13 +2823,13 @@
         <v>What is the meaning of "The desert is an unforgiving place"?</v>
       </c>
       <c r="V14" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="W14" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="X14" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="Y14" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2836,12 +2847,12 @@
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
     </row>
-    <row r="15" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="39.6">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -2851,16 +2862,16 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="J15" s="12">
         <v>0</v>
@@ -2906,13 +2917,13 @@
         <v>What is the meaning of "This golf club is very forgiving"?</v>
       </c>
       <c r="V15" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="W15" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="X15" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="Y15" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2930,29 +2941,29 @@
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
     </row>
-    <row r="16" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="39.6">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="J16" s="12">
         <v>1</v>
@@ -3016,12 +3027,12 @@
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
     </row>
-    <row r="17" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="39.6">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -3029,16 +3040,16 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J17" s="12">
         <v>1</v>
@@ -3102,22 +3113,22 @@
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
     </row>
-    <row r="18" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="26.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>12</v>
@@ -3126,7 +3137,7 @@
         <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J18" s="13">
         <v>0</v>
@@ -3172,13 +3183,13 @@
         <v>What is the meaning of "He is judgmental"?</v>
       </c>
       <c r="V18" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="W18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="Y18" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3196,31 +3207,31 @@
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
     </row>
-    <row r="19" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="26.4">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="12">
         <v>1</v>
@@ -3284,31 +3295,31 @@
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
     </row>
-    <row r="20" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="39.6">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J20" s="12">
         <v>1</v>
@@ -3372,31 +3383,31 @@
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
     </row>
-    <row r="21" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="26.4">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="J21" s="13">
         <v>0</v>
@@ -3442,13 +3453,13 @@
         <v>What is the meaning of "Inoperable cancer"?</v>
       </c>
       <c r="V21" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="W21" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="X21" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>244</v>
       </c>
       <c r="Y21" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3466,31 +3477,31 @@
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
     </row>
-    <row r="22" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="39.6">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H22" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="J22" s="13">
         <v>1</v>
@@ -3554,31 +3565,31 @@
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
     </row>
-    <row r="23" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="39.6">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H23" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="J23" s="13">
         <v>0</v>
@@ -3624,13 +3635,13 @@
         <v>What is the meaning of "He pillowed his head on her arm"?</v>
       </c>
       <c r="V23" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="W23" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="X23" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="Y23" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3648,31 +3659,31 @@
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
     </row>
-    <row r="24" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="39.6">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H24" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="J24" s="13">
         <v>1</v>
@@ -3736,31 +3747,31 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
     </row>
-    <row r="25" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="39.6">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="J25" s="13">
         <v>1</v>
@@ -3824,31 +3835,31 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
     </row>
-    <row r="26" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="39.6">
       <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="J26" s="13">
         <v>0</v>
@@ -3894,13 +3905,13 @@
         <v>What is the meaning of "Unsubstantiated rumors"?</v>
       </c>
       <c r="V26" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="W26" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="X26" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="X26" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="Y26" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3918,31 +3929,31 @@
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
     </row>
-    <row r="27" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="39.6">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="J27" s="13">
         <v>0</v>
@@ -3988,13 +3999,13 @@
         <v>What is the meaning of "Liverpool equalized"?</v>
       </c>
       <c r="V27" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="W27" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="W27" s="11" t="s">
+      <c r="X27" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="Y27" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4012,31 +4023,31 @@
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
     </row>
-    <row r="28" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="26.4">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="J28" s="13">
         <v>0</v>
@@ -4082,13 +4093,13 @@
         <v>What is the meaning of "Espouse the ideal"?</v>
       </c>
       <c r="V28" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="W28" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="W28" s="11" t="s">
+      <c r="X28" s="11" t="s">
         <v>255</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>256</v>
       </c>
       <c r="Y28" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4106,31 +4117,31 @@
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
     </row>
-    <row r="29" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="26.4">
       <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H29" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="J29" s="13">
         <v>0</v>
@@ -4176,13 +4187,13 @@
         <v>What is the meaning of "Difficult to quantify"?</v>
       </c>
       <c r="V29" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="W29" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="W29" s="11" t="s">
+      <c r="X29" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>259</v>
       </c>
       <c r="Y29" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4200,29 +4211,29 @@
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
     </row>
-    <row r="30" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="39.6">
       <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J30" s="13">
         <v>1</v>
@@ -4286,12 +4297,12 @@
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
     </row>
-    <row r="31" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="39.6">
       <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
@@ -4299,16 +4310,16 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H31" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="J31" s="13">
         <v>0</v>
@@ -4354,13 +4365,13 @@
         <v>What is the meaning of "He has designs on my job"?</v>
       </c>
       <c r="V31" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="W31" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="W31" s="11" t="s">
+      <c r="X31" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="Y31" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4378,12 +4389,12 @@
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
     </row>
-    <row r="32" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="39.6">
       <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
@@ -4391,16 +4402,16 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H32" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="J32" s="13">
         <v>0</v>
@@ -4446,13 +4457,13 @@
         <v>What is the meaning of "The dictates of my conscience"?</v>
       </c>
       <c r="V32" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="W32" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="W32" s="11" t="s">
+      <c r="X32" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="X32" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="Y32" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4470,12 +4481,12 @@
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
     </row>
-    <row r="33" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="26.4">
       <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
@@ -4483,16 +4494,16 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J33" s="13">
         <v>1</v>
@@ -4556,12 +4567,12 @@
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
     </row>
-    <row r="34" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="39.6">
       <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
@@ -4569,16 +4580,16 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J34" s="12">
         <v>1</v>
@@ -4642,12 +4653,12 @@
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
     </row>
-    <row r="35" spans="1:33" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" ht="52.8">
       <c r="A35" s="1">
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
@@ -4655,16 +4666,16 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J35" s="12">
         <v>0</v>
@@ -4710,13 +4721,13 @@
         <v>What is the meaning of "I got the job through the good offices of a friend"?</v>
       </c>
       <c r="V35" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="W35" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="W35" s="14" t="s">
+      <c r="X35" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="X35" s="10" t="s">
-        <v>268</v>
       </c>
       <c r="Y35" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4734,12 +4745,12 @@
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
     </row>
-    <row r="36" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" ht="39.6">
       <c r="A36" s="1">
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
@@ -4747,16 +4758,16 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J36" s="12">
         <v>0</v>
@@ -4802,13 +4813,13 @@
         <v>What is the meaning of "The upper reaches of society"?</v>
       </c>
       <c r="V36" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="W36" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="W36" s="10" t="s">
+      <c r="X36" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="X36" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="Y36" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4826,12 +4837,12 @@
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
     </row>
-    <row r="37" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" ht="39.6">
       <c r="A37" s="1">
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>21</v>
@@ -4839,16 +4850,16 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J37" s="12">
         <v>1</v>
@@ -4912,29 +4923,29 @@
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
     </row>
-    <row r="38" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" ht="39.6">
       <c r="A38" s="1">
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J38" s="12">
         <v>1</v>
@@ -4998,12 +5009,12 @@
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
     </row>
-    <row r="39" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" ht="39.6">
       <c r="A39" s="1">
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>21</v>
@@ -5011,16 +5022,16 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J39" s="12">
         <v>0</v>
@@ -5066,13 +5077,13 @@
         <v>What is the meaning of "He was serially unfaithful"?</v>
       </c>
       <c r="V39" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="W39" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="W39" s="10" t="s">
+      <c r="X39" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="X39" s="10" t="s">
-        <v>274</v>
       </c>
       <c r="Y39" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5090,29 +5101,29 @@
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
     </row>
-    <row r="40" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" ht="39.6">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J40" s="12">
         <v>0</v>
@@ -5158,13 +5169,13 @@
         <v>What is the meaning of "My father snapped at me"?</v>
       </c>
       <c r="V40" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="W40" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="W40" s="10" t="s">
+      <c r="X40" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="X40" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="Y40" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5182,29 +5193,29 @@
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
     </row>
-    <row r="41" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" ht="39.6">
       <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J41" s="12">
         <v>0</v>
@@ -5250,13 +5261,13 @@
         <v>What is the meaning of "We need teachers with snap"?</v>
       </c>
       <c r="V41" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="W41" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="W41" s="10" t="s">
+      <c r="X41" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="X41" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="Y41" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5274,29 +5285,29 @@
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
     </row>
-    <row r="42" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" ht="39.6">
       <c r="A42" s="1">
         <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J42" s="12">
         <v>0</v>
@@ -5342,13 +5353,13 @@
         <v>What is the meaning of "It was a snap decision"?</v>
       </c>
       <c r="V42" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="W42" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="W42" s="10" t="s">
+      <c r="X42" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="X42" s="10" t="s">
-        <v>283</v>
       </c>
       <c r="Y42" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5366,29 +5377,29 @@
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
     </row>
-    <row r="43" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" ht="26.4">
       <c r="A43" s="1">
         <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J43" s="12">
         <v>1</v>
@@ -5452,29 +5463,29 @@
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
     </row>
-    <row r="44" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" ht="26.4">
       <c r="A44" s="1">
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J44" s="12">
         <v>0</v>
@@ -5520,13 +5531,13 @@
         <v>What is the meaning of "He is snap-happy"?</v>
       </c>
       <c r="V44" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W44" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="W44" s="10" t="s">
+      <c r="X44" s="10" t="s">
         <v>285</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>286</v>
       </c>
       <c r="Y44" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5544,29 +5555,29 @@
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
     </row>
-    <row r="45" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" ht="39.6">
       <c r="A45" s="1">
         <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J45" s="12">
         <v>1</v>
@@ -5630,29 +5641,29 @@
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
     </row>
-    <row r="46" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" ht="39.6">
       <c r="A46" s="1">
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J46" s="12">
         <v>0</v>
@@ -5698,13 +5709,13 @@
         <v>What is the meaning of "Tell him to snap out of his depression"?</v>
       </c>
       <c r="V46" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="W46" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="W46" s="10" t="s">
+      <c r="X46" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="X46" s="10" t="s">
-        <v>289</v>
       </c>
       <c r="Y46" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5722,29 +5733,29 @@
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
     </row>
-    <row r="47" spans="1:33" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" ht="39.6">
       <c r="A47" s="1">
         <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J47" s="12">
         <v>0</v>
@@ -5790,13 +5801,13 @@
         <v>What is the meaning of "The best bargains were quickly snapped up"?</v>
       </c>
       <c r="V47" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="W47" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="W47" s="10" t="s">
+      <c r="X47" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="X47" s="10" t="s">
-        <v>292</v>
       </c>
       <c r="Y47" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5814,7 +5825,7 @@
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
     </row>
-    <row r="48" spans="1:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" ht="13.8">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -5844,7 +5855,7 @@
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
     </row>
-    <row r="49" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:33" ht="13.8">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -5874,7 +5885,7 @@
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
     </row>
-    <row r="50" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:33" ht="13.8">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -5904,7 +5915,7 @@
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
     </row>
-    <row r="51" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:33" ht="13.8">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -5934,7 +5945,7 @@
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
     </row>
-    <row r="52" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:33" ht="13.8">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -5964,7 +5975,7 @@
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
     </row>
-    <row r="53" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:33" ht="13.8">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -5994,7 +6005,7 @@
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
     </row>
-    <row r="54" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:33" ht="13.8">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -6024,7 +6035,7 @@
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
     </row>
-    <row r="55" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:33" ht="13.8">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -6054,7 +6065,7 @@
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
     </row>
-    <row r="56" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:33" ht="13.8">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -6084,7 +6095,7 @@
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
     </row>
-    <row r="57" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:33" ht="13.8">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -6114,7 +6125,7 @@
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
     </row>
-    <row r="58" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:33" ht="13.8">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -6144,7 +6155,7 @@
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
     </row>
-    <row r="59" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:33" ht="13.8">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -6174,7 +6185,7 @@
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
     </row>
-    <row r="60" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:33" ht="13.8">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -6204,7 +6215,7 @@
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
     </row>
-    <row r="61" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:33" ht="13.8">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -6234,7 +6245,7 @@
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
     </row>
-    <row r="62" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:33" ht="13.8">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -6264,7 +6275,7 @@
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
     </row>
-    <row r="63" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:33" ht="13.8">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -6294,7 +6305,7 @@
       <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
     </row>
-    <row r="64" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:33" ht="13.8">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -6324,7 +6335,7 @@
       <c r="AF64" s="2"/>
       <c r="AG64" s="2"/>
     </row>
-    <row r="65" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:33" ht="13.8">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -6354,7 +6365,7 @@
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
     </row>
-    <row r="66" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:33" ht="13.8">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -6384,7 +6395,7 @@
       <c r="AF66" s="2"/>
       <c r="AG66" s="2"/>
     </row>
-    <row r="67" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:33" ht="13.8">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -6414,7 +6425,7 @@
       <c r="AF67" s="2"/>
       <c r="AG67" s="2"/>
     </row>
-    <row r="68" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:33" ht="13.8">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -6444,7 +6455,7 @@
       <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
     </row>
-    <row r="69" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:33" ht="13.8">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -6474,7 +6485,7 @@
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
     </row>
-    <row r="70" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:33" ht="13.8">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -6504,7 +6515,7 @@
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
     </row>
-    <row r="71" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:33" ht="13.8">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -6534,7 +6545,7 @@
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
     </row>
-    <row r="72" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:33" ht="13.8">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -6564,7 +6575,7 @@
       <c r="AF72" s="2"/>
       <c r="AG72" s="2"/>
     </row>
-    <row r="73" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:33" ht="13.8">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -6594,7 +6605,7 @@
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
     </row>
-    <row r="74" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:33" ht="13.8">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -6624,7 +6635,7 @@
       <c r="AF74" s="2"/>
       <c r="AG74" s="2"/>
     </row>
-    <row r="75" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:33" ht="13.8">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -6654,7 +6665,7 @@
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
     </row>
-    <row r="76" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:33" ht="13.8">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -6684,7 +6695,7 @@
       <c r="AF76" s="2"/>
       <c r="AG76" s="2"/>
     </row>
-    <row r="77" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:33" ht="13.8">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -6714,7 +6725,7 @@
       <c r="AF77" s="2"/>
       <c r="AG77" s="2"/>
     </row>
-    <row r="78" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:33" ht="13.8">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -6744,7 +6755,7 @@
       <c r="AF78" s="2"/>
       <c r="AG78" s="2"/>
     </row>
-    <row r="79" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:33" ht="13.8">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -6774,7 +6785,7 @@
       <c r="AF79" s="2"/>
       <c r="AG79" s="2"/>
     </row>
-    <row r="80" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:33" ht="13.8">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -6804,7 +6815,7 @@
       <c r="AF80" s="2"/>
       <c r="AG80" s="2"/>
     </row>
-    <row r="81" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:33" ht="13.8">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -6834,7 +6845,7 @@
       <c r="AF81" s="2"/>
       <c r="AG81" s="2"/>
     </row>
-    <row r="82" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:33" ht="13.8">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -6864,7 +6875,7 @@
       <c r="AF82" s="2"/>
       <c r="AG82" s="2"/>
     </row>
-    <row r="83" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:33" ht="13.8">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -6894,7 +6905,7 @@
       <c r="AF83" s="2"/>
       <c r="AG83" s="2"/>
     </row>
-    <row r="84" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:33" ht="13.8">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -6924,7 +6935,7 @@
       <c r="AF84" s="2"/>
       <c r="AG84" s="2"/>
     </row>
-    <row r="85" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:33" ht="13.8">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -6954,7 +6965,7 @@
       <c r="AF85" s="2"/>
       <c r="AG85" s="2"/>
     </row>
-    <row r="86" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:33" ht="13.8">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -6984,7 +6995,7 @@
       <c r="AF86" s="2"/>
       <c r="AG86" s="2"/>
     </row>
-    <row r="87" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:33" ht="13.8">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -7014,7 +7025,7 @@
       <c r="AF87" s="2"/>
       <c r="AG87" s="2"/>
     </row>
-    <row r="88" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:33" ht="13.8">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -7044,7 +7055,7 @@
       <c r="AF88" s="2"/>
       <c r="AG88" s="2"/>
     </row>
-    <row r="89" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:33" ht="13.8">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -7074,7 +7085,7 @@
       <c r="AF89" s="2"/>
       <c r="AG89" s="2"/>
     </row>
-    <row r="90" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:33" ht="13.8">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -7104,7 +7115,7 @@
       <c r="AF90" s="2"/>
       <c r="AG90" s="2"/>
     </row>
-    <row r="91" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:33" ht="13.8">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -7134,7 +7145,7 @@
       <c r="AF91" s="2"/>
       <c r="AG91" s="2"/>
     </row>
-    <row r="92" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:33" ht="13.8">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -7164,7 +7175,7 @@
       <c r="AF92" s="2"/>
       <c r="AG92" s="2"/>
     </row>
-    <row r="93" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:33" ht="13.8">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -7194,7 +7205,7 @@
       <c r="AF93" s="2"/>
       <c r="AG93" s="2"/>
     </row>
-    <row r="94" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:33" ht="13.8">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -7224,7 +7235,7 @@
       <c r="AF94" s="2"/>
       <c r="AG94" s="2"/>
     </row>
-    <row r="95" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:33" ht="13.8">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -7254,7 +7265,7 @@
       <c r="AF95" s="2"/>
       <c r="AG95" s="2"/>
     </row>
-    <row r="96" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:33" ht="13.8">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -7284,7 +7295,7 @@
       <c r="AF96" s="2"/>
       <c r="AG96" s="2"/>
     </row>
-    <row r="97" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:33" ht="13.8">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -7314,7 +7325,7 @@
       <c r="AF97" s="2"/>
       <c r="AG97" s="2"/>
     </row>
-    <row r="98" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:33" ht="13.8">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -7344,7 +7355,7 @@
       <c r="AF98" s="2"/>
       <c r="AG98" s="2"/>
     </row>
-    <row r="99" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:33" ht="13.8">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -7374,7 +7385,7 @@
       <c r="AF99" s="2"/>
       <c r="AG99" s="2"/>
     </row>
-    <row r="100" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:33" ht="13.8">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -7404,7 +7415,7 @@
       <c r="AF100" s="2"/>
       <c r="AG100" s="2"/>
     </row>
-    <row r="101" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:33" ht="13.8">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -7434,7 +7445,7 @@
       <c r="AF101" s="2"/>
       <c r="AG101" s="2"/>
     </row>
-    <row r="102" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:33" ht="13.8">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -7464,7 +7475,7 @@
       <c r="AF102" s="2"/>
       <c r="AG102" s="2"/>
     </row>
-    <row r="103" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:33" ht="13.8">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -7494,7 +7505,7 @@
       <c r="AF103" s="2"/>
       <c r="AG103" s="2"/>
     </row>
-    <row r="104" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:33" ht="13.8">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -7524,7 +7535,7 @@
       <c r="AF104" s="2"/>
       <c r="AG104" s="2"/>
     </row>
-    <row r="105" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:33" ht="13.8">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -7554,7 +7565,7 @@
       <c r="AF105" s="2"/>
       <c r="AG105" s="2"/>
     </row>
-    <row r="106" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:33" ht="13.8">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -7584,7 +7595,7 @@
       <c r="AF106" s="2"/>
       <c r="AG106" s="2"/>
     </row>
-    <row r="107" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:33" ht="13.8">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -7614,7 +7625,7 @@
       <c r="AF107" s="2"/>
       <c r="AG107" s="2"/>
     </row>
-    <row r="108" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:33" ht="13.8">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -7644,7 +7655,7 @@
       <c r="AF108" s="2"/>
       <c r="AG108" s="2"/>
     </row>
-    <row r="109" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:33" ht="13.8">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -7674,7 +7685,7 @@
       <c r="AF109" s="2"/>
       <c r="AG109" s="2"/>
     </row>
-    <row r="110" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:33" ht="13.8">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -7704,7 +7715,7 @@
       <c r="AF110" s="2"/>
       <c r="AG110" s="2"/>
     </row>
-    <row r="111" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:33" ht="13.8">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -7734,7 +7745,7 @@
       <c r="AF111" s="2"/>
       <c r="AG111" s="2"/>
     </row>
-    <row r="112" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:33" ht="13.8">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -7764,7 +7775,7 @@
       <c r="AF112" s="2"/>
       <c r="AG112" s="2"/>
     </row>
-    <row r="113" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:33" ht="13.8">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -7794,7 +7805,7 @@
       <c r="AF113" s="2"/>
       <c r="AG113" s="2"/>
     </row>
-    <row r="114" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:33" ht="13.8">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -7824,7 +7835,7 @@
       <c r="AF114" s="2"/>
       <c r="AG114" s="2"/>
     </row>
-    <row r="115" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:33" ht="13.8">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -7854,7 +7865,7 @@
       <c r="AF115" s="2"/>
       <c r="AG115" s="2"/>
     </row>
-    <row r="116" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:33" ht="13.8">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -7884,7 +7895,7 @@
       <c r="AF116" s="2"/>
       <c r="AG116" s="2"/>
     </row>
-    <row r="117" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:33" ht="13.8">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -7914,7 +7925,7 @@
       <c r="AF117" s="2"/>
       <c r="AG117" s="2"/>
     </row>
-    <row r="118" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:33" ht="13.8">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -7944,7 +7955,7 @@
       <c r="AF118" s="2"/>
       <c r="AG118" s="2"/>
     </row>
-    <row r="119" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:33" ht="13.8">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -7974,7 +7985,7 @@
       <c r="AF119" s="2"/>
       <c r="AG119" s="2"/>
     </row>
-    <row r="120" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:33" ht="13.8">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -8004,7 +8015,7 @@
       <c r="AF120" s="2"/>
       <c r="AG120" s="2"/>
     </row>
-    <row r="121" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:33" ht="13.8">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -8034,7 +8045,7 @@
       <c r="AF121" s="2"/>
       <c r="AG121" s="2"/>
     </row>
-    <row r="122" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:33" ht="13.8">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -8064,7 +8075,7 @@
       <c r="AF122" s="2"/>
       <c r="AG122" s="2"/>
     </row>
-    <row r="123" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:33" ht="13.8">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -8094,7 +8105,7 @@
       <c r="AF123" s="2"/>
       <c r="AG123" s="2"/>
     </row>
-    <row r="124" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:33" ht="13.8">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -8124,7 +8135,7 @@
       <c r="AF124" s="2"/>
       <c r="AG124" s="2"/>
     </row>
-    <row r="125" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:33" ht="13.8">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -8154,7 +8165,7 @@
       <c r="AF125" s="2"/>
       <c r="AG125" s="2"/>
     </row>
-    <row r="126" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:33" ht="13.8">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -8184,7 +8195,7 @@
       <c r="AF126" s="2"/>
       <c r="AG126" s="2"/>
     </row>
-    <row r="127" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:33" ht="13.8">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -8214,7 +8225,7 @@
       <c r="AF127" s="2"/>
       <c r="AG127" s="2"/>
     </row>
-    <row r="128" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:33" ht="13.8">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -8244,7 +8255,7 @@
       <c r="AF128" s="2"/>
       <c r="AG128" s="2"/>
     </row>
-    <row r="129" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:33" ht="13.8">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -8274,7 +8285,7 @@
       <c r="AF129" s="2"/>
       <c r="AG129" s="2"/>
     </row>
-    <row r="130" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:33" ht="13.8">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -8304,7 +8315,7 @@
       <c r="AF130" s="2"/>
       <c r="AG130" s="2"/>
     </row>
-    <row r="131" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:33" ht="13.8">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8334,7 +8345,7 @@
       <c r="AF131" s="2"/>
       <c r="AG131" s="2"/>
     </row>
-    <row r="132" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:33" ht="13.8">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -8364,7 +8375,7 @@
       <c r="AF132" s="2"/>
       <c r="AG132" s="2"/>
     </row>
-    <row r="133" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:33" ht="13.8">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -8394,7 +8405,7 @@
       <c r="AF133" s="2"/>
       <c r="AG133" s="2"/>
     </row>
-    <row r="134" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:33" ht="13.8">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8424,7 +8435,7 @@
       <c r="AF134" s="2"/>
       <c r="AG134" s="2"/>
     </row>
-    <row r="135" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:33" ht="13.8">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8454,7 +8465,7 @@
       <c r="AF135" s="2"/>
       <c r="AG135" s="2"/>
     </row>
-    <row r="136" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:33" ht="13.8">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8484,7 +8495,7 @@
       <c r="AF136" s="2"/>
       <c r="AG136" s="2"/>
     </row>
-    <row r="137" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:33" ht="13.8">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -8514,7 +8525,7 @@
       <c r="AF137" s="2"/>
       <c r="AG137" s="2"/>
     </row>
-    <row r="138" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:33" ht="13.8">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8544,7 +8555,7 @@
       <c r="AF138" s="2"/>
       <c r="AG138" s="2"/>
     </row>
-    <row r="139" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:33" ht="13.8">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -8574,7 +8585,7 @@
       <c r="AF139" s="2"/>
       <c r="AG139" s="2"/>
     </row>
-    <row r="140" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:33" ht="13.8">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8604,7 +8615,7 @@
       <c r="AF140" s="2"/>
       <c r="AG140" s="2"/>
     </row>
-    <row r="141" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:33" ht="13.8">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8634,7 +8645,7 @@
       <c r="AF141" s="2"/>
       <c r="AG141" s="2"/>
     </row>
-    <row r="142" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:33" ht="13.8">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -8664,7 +8675,7 @@
       <c r="AF142" s="2"/>
       <c r="AG142" s="2"/>
     </row>
-    <row r="143" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:33" ht="13.8">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8694,7 +8705,7 @@
       <c r="AF143" s="2"/>
       <c r="AG143" s="2"/>
     </row>
-    <row r="144" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:33" ht="13.8">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -8724,7 +8735,7 @@
       <c r="AF144" s="2"/>
       <c r="AG144" s="2"/>
     </row>
-    <row r="145" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:33" ht="13.8">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -8754,7 +8765,7 @@
       <c r="AF145" s="2"/>
       <c r="AG145" s="2"/>
     </row>
-    <row r="146" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:33" ht="13.8">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -8784,7 +8795,7 @@
       <c r="AF146" s="2"/>
       <c r="AG146" s="2"/>
     </row>
-    <row r="147" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:33" ht="13.8">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -8814,7 +8825,7 @@
       <c r="AF147" s="2"/>
       <c r="AG147" s="2"/>
     </row>
-    <row r="148" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:33" ht="13.8">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -8844,7 +8855,7 @@
       <c r="AF148" s="2"/>
       <c r="AG148" s="2"/>
     </row>
-    <row r="149" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:33" ht="13.8">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -8874,7 +8885,7 @@
       <c r="AF149" s="2"/>
       <c r="AG149" s="2"/>
     </row>
-    <row r="150" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:33" ht="13.8">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -8904,7 +8915,7 @@
       <c r="AF150" s="2"/>
       <c r="AG150" s="2"/>
     </row>
-    <row r="151" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:33" ht="13.8">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -8934,7 +8945,7 @@
       <c r="AF151" s="2"/>
       <c r="AG151" s="2"/>
     </row>
-    <row r="152" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:33" ht="13.8">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -8964,7 +8975,7 @@
       <c r="AF152" s="2"/>
       <c r="AG152" s="2"/>
     </row>
-    <row r="153" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:33" ht="13.8">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -8994,7 +9005,7 @@
       <c r="AF153" s="2"/>
       <c r="AG153" s="2"/>
     </row>
-    <row r="154" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:33" ht="13.8">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -9024,7 +9035,7 @@
       <c r="AF154" s="2"/>
       <c r="AG154" s="2"/>
     </row>
-    <row r="155" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:33" ht="13.8">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -9054,7 +9065,7 @@
       <c r="AF155" s="2"/>
       <c r="AG155" s="2"/>
     </row>
-    <row r="156" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:33" ht="13.8">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -9084,7 +9095,7 @@
       <c r="AF156" s="2"/>
       <c r="AG156" s="2"/>
     </row>
-    <row r="157" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:33" ht="13.8">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -9114,7 +9125,7 @@
       <c r="AF157" s="2"/>
       <c r="AG157" s="2"/>
     </row>
-    <row r="158" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:33" ht="13.8">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -9144,7 +9155,7 @@
       <c r="AF158" s="2"/>
       <c r="AG158" s="2"/>
     </row>
-    <row r="159" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:33" ht="13.8">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -9174,7 +9185,7 @@
       <c r="AF159" s="2"/>
       <c r="AG159" s="2"/>
     </row>
-    <row r="160" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:33" ht="13.8">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -9204,7 +9215,7 @@
       <c r="AF160" s="2"/>
       <c r="AG160" s="2"/>
     </row>
-    <row r="161" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:33" ht="13.8">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -9234,7 +9245,7 @@
       <c r="AF161" s="2"/>
       <c r="AG161" s="2"/>
     </row>
-    <row r="162" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:33" ht="13.8">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -9264,7 +9275,7 @@
       <c r="AF162" s="2"/>
       <c r="AG162" s="2"/>
     </row>
-    <row r="163" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:33" ht="13.8">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -9294,7 +9305,7 @@
       <c r="AF163" s="2"/>
       <c r="AG163" s="2"/>
     </row>
-    <row r="164" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:33" ht="13.8">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -9324,7 +9335,7 @@
       <c r="AF164" s="2"/>
       <c r="AG164" s="2"/>
     </row>
-    <row r="165" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:33" ht="13.8">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -9354,7 +9365,7 @@
       <c r="AF165" s="2"/>
       <c r="AG165" s="2"/>
     </row>
-    <row r="166" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:33" ht="13.8">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -9384,7 +9395,7 @@
       <c r="AF166" s="2"/>
       <c r="AG166" s="2"/>
     </row>
-    <row r="167" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:33" ht="13.8">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -9414,7 +9425,7 @@
       <c r="AF167" s="2"/>
       <c r="AG167" s="2"/>
     </row>
-    <row r="168" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:33" ht="13.8">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -9444,7 +9455,7 @@
       <c r="AF168" s="2"/>
       <c r="AG168" s="2"/>
     </row>
-    <row r="169" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:33" ht="13.8">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -9474,7 +9485,7 @@
       <c r="AF169" s="2"/>
       <c r="AG169" s="2"/>
     </row>
-    <row r="170" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:33" ht="13.8">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -9504,7 +9515,7 @@
       <c r="AF170" s="2"/>
       <c r="AG170" s="2"/>
     </row>
-    <row r="171" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:33" ht="13.8">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -9534,7 +9545,7 @@
       <c r="AF171" s="2"/>
       <c r="AG171" s="2"/>
     </row>
-    <row r="172" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:33" ht="13.8">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -9564,7 +9575,7 @@
       <c r="AF172" s="2"/>
       <c r="AG172" s="2"/>
     </row>
-    <row r="173" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:33" ht="13.8">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -9594,7 +9605,7 @@
       <c r="AF173" s="2"/>
       <c r="AG173" s="2"/>
     </row>
-    <row r="174" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:33" ht="13.8">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -9624,7 +9635,7 @@
       <c r="AF174" s="2"/>
       <c r="AG174" s="2"/>
     </row>
-    <row r="175" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:33" ht="13.8">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -9654,7 +9665,7 @@
       <c r="AF175" s="2"/>
       <c r="AG175" s="2"/>
     </row>
-    <row r="176" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:33" ht="13.8">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -9684,7 +9695,7 @@
       <c r="AF176" s="2"/>
       <c r="AG176" s="2"/>
     </row>
-    <row r="177" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:33" ht="13.8">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -9714,7 +9725,7 @@
       <c r="AF177" s="2"/>
       <c r="AG177" s="2"/>
     </row>
-    <row r="178" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:33" ht="13.8">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -9744,7 +9755,7 @@
       <c r="AF178" s="2"/>
       <c r="AG178" s="2"/>
     </row>
-    <row r="179" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:33" ht="13.8">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -9774,7 +9785,7 @@
       <c r="AF179" s="2"/>
       <c r="AG179" s="2"/>
     </row>
-    <row r="180" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:33" ht="13.8">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -9804,7 +9815,7 @@
       <c r="AF180" s="2"/>
       <c r="AG180" s="2"/>
     </row>
-    <row r="181" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:33" ht="13.8">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -9834,7 +9845,7 @@
       <c r="AF181" s="2"/>
       <c r="AG181" s="2"/>
     </row>
-    <row r="182" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:33" ht="13.8">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -9864,7 +9875,7 @@
       <c r="AF182" s="2"/>
       <c r="AG182" s="2"/>
     </row>
-    <row r="183" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:33" ht="13.8">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -9894,7 +9905,7 @@
       <c r="AF183" s="2"/>
       <c r="AG183" s="2"/>
     </row>
-    <row r="184" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:33" ht="13.8">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -9924,7 +9935,7 @@
       <c r="AF184" s="2"/>
       <c r="AG184" s="2"/>
     </row>
-    <row r="185" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:33" ht="13.8">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -9954,7 +9965,7 @@
       <c r="AF185" s="2"/>
       <c r="AG185" s="2"/>
     </row>
-    <row r="186" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:33" ht="13.8">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -9984,7 +9995,7 @@
       <c r="AF186" s="2"/>
       <c r="AG186" s="2"/>
     </row>
-    <row r="187" spans="3:33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:33" ht="13.8">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>

--- a/miniproject/template/Lectures/Lecture 1.xlsx
+++ b/miniproject/template/Lectures/Lecture 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E36A55-1ED8-487B-AEA4-5E7CA74894E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E5347F-E547-4F0A-9CF2-30B662B12CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,6 +114,9 @@
     <t>He is snap-happy</t>
   </si>
   <si>
+    <t>Too young to understand</t>
+  </si>
+  <si>
     <t>Neglected members</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,9 +759,6 @@
     <t>The best bargains were quickly bought by shoppers</t>
   </si>
   <si>
-    <t>Too old to understand</t>
-  </si>
-  <si>
     <t>Be young enough to understand</t>
   </si>
   <si>
@@ -1084,7 +1084,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Too young to understand(test)</t>
+    <t>Too old to understand(test)</t>
   </si>
 </sst>
 </file>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -1598,10 +1598,10 @@
   <sheetData>
     <row r="1" spans="1:33" ht="26.4">
       <c r="A1" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -1610,70 +1610,70 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="Y1" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
@@ -1688,24 +1688,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J2" s="12">
         <v>1</v>
@@ -1751,7 +1751,7 @@
         <v>What is the meaning of "Wet behind the ears"?</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="W2" s="10" t="s">
         <v>218</v>
@@ -1780,24 +1780,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J3" s="12">
         <v>1</v>
@@ -1866,24 +1866,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J4" s="12">
         <v>0</v>
@@ -1958,24 +1958,24 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J5" s="12">
         <v>1</v>
@@ -2044,24 +2044,24 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
@@ -2136,24 +2136,24 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J7" s="12">
         <v>1</v>
@@ -2222,24 +2222,24 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J8" s="12">
         <v>0</v>
@@ -2314,24 +2314,24 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J9" s="12">
         <v>1</v>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -2416,16 +2416,16 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J10" s="12">
         <v>1</v>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -2504,16 +2504,16 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J11" s="12">
         <v>1</v>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -2592,16 +2592,16 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J12" s="12">
         <v>1</v>
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -2680,16 +2680,16 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J13" s="12">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -2768,16 +2768,16 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J14" s="12">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -2862,16 +2862,16 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J15" s="12">
         <v>0</v>
@@ -2946,24 +2946,24 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J16" s="12">
         <v>1</v>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -3040,16 +3040,16 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>301</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J17" s="12">
         <v>1</v>
@@ -3118,17 +3118,17 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>12</v>
@@ -3137,7 +3137,7 @@
         <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J18" s="13">
         <v>0</v>
@@ -3212,26 +3212,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J19" s="12">
         <v>1</v>
@@ -3300,23 +3300,23 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>292</v>
@@ -3388,26 +3388,26 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J21" s="13">
         <v>0</v>
@@ -3482,26 +3482,26 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J22" s="13">
         <v>1</v>
@@ -3570,26 +3570,26 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J23" s="13">
         <v>0</v>
@@ -3664,26 +3664,26 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J24" s="13">
         <v>1</v>
@@ -3752,26 +3752,26 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J25" s="13">
         <v>1</v>
@@ -3840,26 +3840,26 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J26" s="13">
         <v>0</v>
@@ -3934,26 +3934,26 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J27" s="13">
         <v>0</v>
@@ -4028,26 +4028,26 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J28" s="13">
         <v>0</v>
@@ -4122,26 +4122,26 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J29" s="13">
         <v>0</v>
@@ -4216,24 +4216,24 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J30" s="13">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
@@ -4310,16 +4310,16 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J31" s="13">
         <v>0</v>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
@@ -4402,16 +4402,16 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J32" s="13">
         <v>0</v>
@@ -4486,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
@@ -4494,16 +4494,16 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J33" s="13">
         <v>1</v>
@@ -4572,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
@@ -4580,13 +4580,13 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>293</v>
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
@@ -4666,16 +4666,16 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J35" s="12">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
@@ -4758,13 +4758,13 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>294</v>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>21</v>
@@ -4850,16 +4850,16 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J37" s="12">
         <v>1</v>
@@ -4928,21 +4928,21 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>295</v>
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>21</v>
@@ -5022,13 +5022,13 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>296</v>
@@ -5106,21 +5106,21 @@
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>297</v>
@@ -5198,24 +5198,24 @@
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J41" s="12">
         <v>0</v>
@@ -5290,21 +5290,21 @@
         <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>298</v>
@@ -5382,24 +5382,24 @@
         <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J43" s="12">
         <v>1</v>
@@ -5468,24 +5468,24 @@
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J44" s="12">
         <v>0</v>
@@ -5560,24 +5560,24 @@
         <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J45" s="12">
         <v>1</v>
@@ -5646,21 +5646,21 @@
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>299</v>
@@ -5738,21 +5738,21 @@
         <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>300</v>

--- a/miniproject/template/Lectures/Lecture 1.xlsx
+++ b/miniproject/template/Lectures/Lecture 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E5347F-E547-4F0A-9CF2-30B662B12CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8421FADB-8049-4BDE-9A1E-EAED1F179244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>

--- a/miniproject/template/Lectures/Lecture 1.xlsx
+++ b/miniproject/template/Lectures/Lecture 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8421FADB-8049-4BDE-9A1E-EAED1F179244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717F160F-F71C-4052-BBA4-62F143C1221A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>He is snap-happy</t>
   </si>
   <si>
-    <t>Too young to understand</t>
-  </si>
-  <si>
     <t>Neglected members</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1082,6 +1079,9 @@
   <si>
     <t>She does not look fashionable in short hair</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Too young to understand(test)</t>
   </si>
   <si>
     <t>Too old to understand(test)</t>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -1598,82 +1598,82 @@
   <sheetData>
     <row r="1" spans="1:33" ht="26.4">
       <c r="A1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
@@ -1688,24 +1688,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J2" s="12">
         <v>1</v>
@@ -1754,10 +1754,10 @@
         <v>302</v>
       </c>
       <c r="W2" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="X2" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>219</v>
       </c>
       <c r="Y2" s="5" t="str">
         <f>IF(L2=1,CONCATENATE("L4",$F2),"")</f>
@@ -1780,24 +1780,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="J3" s="12">
         <v>1</v>
@@ -1866,24 +1866,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="J4" s="12">
         <v>0</v>
@@ -1929,13 +1929,13 @@
         <v>What is the meaning of "I am between jobs"?</v>
       </c>
       <c r="V4" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="W4" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="Y4" s="5" t="str">
         <f t="shared" si="6"/>
@@ -1958,24 +1958,24 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5" s="12">
         <v>1</v>
@@ -2044,24 +2044,24 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
@@ -2107,13 +2107,13 @@
         <v>What is the meaning of "He is good under the hood"?</v>
       </c>
       <c r="V6" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="W6" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="X6" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="Y6" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2136,24 +2136,24 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="J7" s="12">
         <v>1</v>
@@ -2222,24 +2222,24 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="J8" s="12">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>What is the meaning of "He is on the wrong side of the law"?</v>
       </c>
       <c r="V8" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="X8" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="Y8" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2314,24 +2314,24 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="J9" s="12">
         <v>1</v>
@@ -2377,13 +2377,13 @@
         <v>What is the meaning of "She is on the wrong side of 50"?</v>
       </c>
       <c r="V9" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="W9" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="W9" s="10" t="s">
+      <c r="X9" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="Y9" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -2416,16 +2416,16 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="J10" s="12">
         <v>1</v>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -2504,16 +2504,16 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="J11" s="12">
         <v>1</v>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -2592,16 +2592,16 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="J12" s="12">
         <v>1</v>
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -2680,16 +2680,16 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="J13" s="12">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -2768,16 +2768,16 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="J14" s="12">
         <v>1</v>
@@ -2823,13 +2823,13 @@
         <v>What is the meaning of "The desert is an unforgiving place"?</v>
       </c>
       <c r="V14" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="W14" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="X14" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="Y14" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -2862,16 +2862,16 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="J15" s="12">
         <v>0</v>
@@ -2917,13 +2917,13 @@
         <v>What is the meaning of "This golf club is very forgiving"?</v>
       </c>
       <c r="V15" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="W15" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="X15" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="Y15" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2946,24 +2946,24 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="J16" s="12">
         <v>1</v>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -3040,16 +3040,16 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J17" s="12">
         <v>1</v>
@@ -3118,17 +3118,17 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>12</v>
@@ -3137,7 +3137,7 @@
         <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J18" s="13">
         <v>0</v>
@@ -3183,13 +3183,13 @@
         <v>What is the meaning of "He is judgmental"?</v>
       </c>
       <c r="V18" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="W18" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="X18" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="Y18" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3212,26 +3212,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="12">
         <v>1</v>
@@ -3300,26 +3300,26 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J20" s="12">
         <v>1</v>
@@ -3388,26 +3388,26 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="J21" s="13">
         <v>0</v>
@@ -3453,13 +3453,13 @@
         <v>What is the meaning of "Inoperable cancer"?</v>
       </c>
       <c r="V21" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="W21" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="X21" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="Y21" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3482,26 +3482,26 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H22" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="J22" s="13">
         <v>1</v>
@@ -3570,26 +3570,26 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H23" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="J23" s="13">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>What is the meaning of "He pillowed his head on her arm"?</v>
       </c>
       <c r="V23" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="W23" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="X23" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="Y23" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3664,26 +3664,26 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H24" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="J24" s="13">
         <v>1</v>
@@ -3752,26 +3752,26 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="J25" s="13">
         <v>1</v>
@@ -3840,26 +3840,26 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="J26" s="13">
         <v>0</v>
@@ -3905,13 +3905,13 @@
         <v>What is the meaning of "Unsubstantiated rumors"?</v>
       </c>
       <c r="V26" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="W26" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="X26" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="X26" s="11" t="s">
-        <v>249</v>
       </c>
       <c r="Y26" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3934,26 +3934,26 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="J27" s="13">
         <v>0</v>
@@ -3999,13 +3999,13 @@
         <v>What is the meaning of "Liverpool equalized"?</v>
       </c>
       <c r="V27" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="W27" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="W27" s="11" t="s">
+      <c r="X27" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="Y27" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4028,26 +4028,26 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="J28" s="13">
         <v>0</v>
@@ -4093,13 +4093,13 @@
         <v>What is the meaning of "Espouse the ideal"?</v>
       </c>
       <c r="V28" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="W28" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="W28" s="11" t="s">
+      <c r="X28" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="Y28" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4122,26 +4122,26 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H29" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="J29" s="13">
         <v>0</v>
@@ -4187,13 +4187,13 @@
         <v>What is the meaning of "Difficult to quantify"?</v>
       </c>
       <c r="V29" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="W29" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="W29" s="11" t="s">
+      <c r="X29" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>258</v>
       </c>
       <c r="Y29" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4216,24 +4216,24 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J30" s="13">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
@@ -4310,16 +4310,16 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H31" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="J31" s="13">
         <v>0</v>
@@ -4365,13 +4365,13 @@
         <v>What is the meaning of "He has designs on my job"?</v>
       </c>
       <c r="V31" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="W31" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="W31" s="11" t="s">
+      <c r="X31" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="Y31" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
@@ -4402,16 +4402,16 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H32" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="J32" s="13">
         <v>0</v>
@@ -4457,13 +4457,13 @@
         <v>What is the meaning of "The dictates of my conscience"?</v>
       </c>
       <c r="V32" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="W32" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="W32" s="11" t="s">
+      <c r="X32" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="X32" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="Y32" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4486,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
@@ -4494,16 +4494,16 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J33" s="13">
         <v>1</v>
@@ -4572,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
@@ -4580,16 +4580,16 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J34" s="12">
         <v>1</v>
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
@@ -4666,16 +4666,16 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J35" s="12">
         <v>0</v>
@@ -4721,13 +4721,13 @@
         <v>What is the meaning of "I got the job through the good offices of a friend"?</v>
       </c>
       <c r="V35" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="W35" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="W35" s="14" t="s">
+      <c r="X35" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="X35" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="Y35" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
@@ -4758,16 +4758,16 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J36" s="12">
         <v>0</v>
@@ -4813,13 +4813,13 @@
         <v>What is the meaning of "The upper reaches of society"?</v>
       </c>
       <c r="V36" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="W36" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="W36" s="10" t="s">
+      <c r="X36" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="X36" s="10" t="s">
-        <v>270</v>
       </c>
       <c r="Y36" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>21</v>
@@ -4850,16 +4850,16 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J37" s="12">
         <v>1</v>
@@ -4928,24 +4928,24 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J38" s="12">
         <v>1</v>
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>21</v>
@@ -5022,16 +5022,16 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J39" s="12">
         <v>0</v>
@@ -5077,13 +5077,13 @@
         <v>What is the meaning of "He was serially unfaithful"?</v>
       </c>
       <c r="V39" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="W39" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="W39" s="10" t="s">
+      <c r="X39" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="X39" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="Y39" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5106,24 +5106,24 @@
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J40" s="12">
         <v>0</v>
@@ -5169,13 +5169,13 @@
         <v>What is the meaning of "My father snapped at me"?</v>
       </c>
       <c r="V40" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="W40" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="W40" s="10" t="s">
+      <c r="X40" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="X40" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="Y40" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5198,24 +5198,24 @@
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J41" s="12">
         <v>0</v>
@@ -5261,13 +5261,13 @@
         <v>What is the meaning of "We need teachers with snap"?</v>
       </c>
       <c r="V41" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="W41" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="W41" s="10" t="s">
+      <c r="X41" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="X41" s="10" t="s">
-        <v>279</v>
       </c>
       <c r="Y41" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5290,24 +5290,24 @@
         <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J42" s="12">
         <v>0</v>
@@ -5353,13 +5353,13 @@
         <v>What is the meaning of "It was a snap decision"?</v>
       </c>
       <c r="V42" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="W42" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="W42" s="10" t="s">
+      <c r="X42" s="10" t="s">
         <v>281</v>
-      </c>
-      <c r="X42" s="10" t="s">
-        <v>282</v>
       </c>
       <c r="Y42" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5382,24 +5382,24 @@
         <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J43" s="12">
         <v>1</v>
@@ -5468,24 +5468,24 @@
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J44" s="12">
         <v>0</v>
@@ -5531,13 +5531,13 @@
         <v>What is the meaning of "He is snap-happy"?</v>
       </c>
       <c r="V44" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="W44" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W44" s="10" t="s">
+      <c r="X44" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>285</v>
       </c>
       <c r="Y44" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5560,24 +5560,24 @@
         <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J45" s="12">
         <v>1</v>
@@ -5646,24 +5646,24 @@
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J46" s="12">
         <v>0</v>
@@ -5709,13 +5709,13 @@
         <v>What is the meaning of "Tell him to snap out of his depression"?</v>
       </c>
       <c r="V46" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="W46" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="W46" s="10" t="s">
+      <c r="X46" s="10" t="s">
         <v>287</v>
-      </c>
-      <c r="X46" s="10" t="s">
-        <v>288</v>
       </c>
       <c r="Y46" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5738,24 +5738,24 @@
         <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J47" s="12">
         <v>0</v>
@@ -5801,13 +5801,13 @@
         <v>What is the meaning of "The best bargains were quickly snapped up"?</v>
       </c>
       <c r="V47" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="W47" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="W47" s="10" t="s">
+      <c r="X47" s="10" t="s">
         <v>290</v>
-      </c>
-      <c r="X47" s="10" t="s">
-        <v>291</v>
       </c>
       <c r="Y47" s="5" t="str">
         <f t="shared" si="6"/>

--- a/miniproject/template/Lectures/Lecture 1.xlsx
+++ b/miniproject/template/Lectures/Lecture 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717F160F-F71C-4052-BBA4-62F143C1221A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8237E868-F711-48A7-8CA1-6ED17ABA02E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -1731,8 +1731,8 @@
         <v>What is the concept of "Wet behind the ears"?</v>
       </c>
       <c r="Q2" s="9" t="str">
-        <f>IF(J2=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <f>IF(J2=0,"","wrong option1(test)")</f>
+        <v>wrong option1(test)</v>
       </c>
       <c r="R2" s="9" t="str">
         <f>IF(J2=0,"","wrong option2")</f>

--- a/miniproject/template/Lectures/Lecture 1.xlsx
+++ b/miniproject/template/Lectures/Lecture 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8237E868-F711-48A7-8CA1-6ED17ABA02E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290F8AD8-917B-4DDA-807F-056E3579DB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,6 +114,9 @@
     <t>He is snap-happy</t>
   </si>
   <si>
+    <t>Too young to understand</t>
+  </si>
+  <si>
     <t>Neglected members</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,6 +759,9 @@
     <t>The best bargains were quickly bought by shoppers</t>
   </si>
   <si>
+    <t>Too old to understand</t>
+  </si>
+  <si>
     <t>Be young enough to understand</t>
   </si>
   <si>
@@ -1079,12 +1085,6 @@
   <si>
     <t>She does not look fashionable in short hair</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Too young to understand(test)</t>
-  </si>
-  <si>
-    <t>Too old to understand(test)</t>
   </si>
 </sst>
 </file>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -1598,10 +1598,10 @@
   <sheetData>
     <row r="1" spans="1:33" ht="26.4">
       <c r="A1" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -1610,70 +1610,70 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="Y1" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
@@ -1688,24 +1688,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J2" s="12">
         <v>1</v>
@@ -1731,8 +1731,8 @@
         <v>What is the concept of "Wet behind the ears"?</v>
       </c>
       <c r="Q2" s="9" t="str">
-        <f>IF(J2=0,"","wrong option1(test)")</f>
-        <v>wrong option1(test)</v>
+        <f>IF(J2=0,"","wrong option1")</f>
+        <v>wrong option1</v>
       </c>
       <c r="R2" s="9" t="str">
         <f>IF(J2=0,"","wrong option2")</f>
@@ -1751,13 +1751,13 @@
         <v>What is the meaning of "Wet behind the ears"?</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Y2" s="5" t="str">
         <f>IF(L2=1,CONCATENATE("L4",$F2),"")</f>
@@ -1780,24 +1780,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J3" s="12">
         <v>1</v>
@@ -1866,24 +1866,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J4" s="12">
         <v>0</v>
@@ -1929,13 +1929,13 @@
         <v>What is the meaning of "I am between jobs"?</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Y4" s="5" t="str">
         <f t="shared" si="6"/>
@@ -1958,24 +1958,24 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J5" s="12">
         <v>1</v>
@@ -2044,24 +2044,24 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
@@ -2107,13 +2107,13 @@
         <v>What is the meaning of "He is good under the hood"?</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Y6" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2136,24 +2136,24 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J7" s="12">
         <v>1</v>
@@ -2222,24 +2222,24 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J8" s="12">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>What is the meaning of "He is on the wrong side of the law"?</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Y8" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2314,24 +2314,24 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J9" s="12">
         <v>1</v>
@@ -2377,13 +2377,13 @@
         <v>What is the meaning of "She is on the wrong side of 50"?</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Y9" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -2416,16 +2416,16 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J10" s="12">
         <v>1</v>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -2504,16 +2504,16 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J11" s="12">
         <v>1</v>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -2592,16 +2592,16 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J12" s="12">
         <v>1</v>
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -2680,16 +2680,16 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J13" s="12">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -2768,16 +2768,16 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J14" s="12">
         <v>1</v>
@@ -2823,13 +2823,13 @@
         <v>What is the meaning of "The desert is an unforgiving place"?</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Y14" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -2862,16 +2862,16 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J15" s="12">
         <v>0</v>
@@ -2917,13 +2917,13 @@
         <v>What is the meaning of "This golf club is very forgiving"?</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y15" s="5" t="str">
         <f t="shared" si="6"/>
@@ -2946,24 +2946,24 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J16" s="12">
         <v>1</v>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -3040,16 +3040,16 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J17" s="12">
         <v>1</v>
@@ -3118,17 +3118,17 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>12</v>
@@ -3137,7 +3137,7 @@
         <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J18" s="13">
         <v>0</v>
@@ -3183,13 +3183,13 @@
         <v>What is the meaning of "He is judgmental"?</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Y18" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3212,26 +3212,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J19" s="12">
         <v>1</v>
@@ -3300,26 +3300,26 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J20" s="12">
         <v>1</v>
@@ -3388,26 +3388,26 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J21" s="13">
         <v>0</v>
@@ -3453,13 +3453,13 @@
         <v>What is the meaning of "Inoperable cancer"?</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Y21" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3482,26 +3482,26 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J22" s="13">
         <v>1</v>
@@ -3570,26 +3570,26 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J23" s="13">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>What is the meaning of "He pillowed his head on her arm"?</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Y23" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3664,26 +3664,26 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J24" s="13">
         <v>1</v>
@@ -3752,26 +3752,26 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J25" s="13">
         <v>1</v>
@@ -3840,26 +3840,26 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J26" s="13">
         <v>0</v>
@@ -3905,13 +3905,13 @@
         <v>What is the meaning of "Unsubstantiated rumors"?</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Y26" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3934,26 +3934,26 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J27" s="13">
         <v>0</v>
@@ -3999,13 +3999,13 @@
         <v>What is the meaning of "Liverpool equalized"?</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Y27" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4028,26 +4028,26 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J28" s="13">
         <v>0</v>
@@ -4093,13 +4093,13 @@
         <v>What is the meaning of "Espouse the ideal"?</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="W28" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y28" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4122,26 +4122,26 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J29" s="13">
         <v>0</v>
@@ -4187,13 +4187,13 @@
         <v>What is the meaning of "Difficult to quantify"?</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="W29" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="X29" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y29" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4216,24 +4216,24 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J30" s="13">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
@@ -4310,16 +4310,16 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J31" s="13">
         <v>0</v>
@@ -4365,13 +4365,13 @@
         <v>What is the meaning of "He has designs on my job"?</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="W31" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="X31" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Y31" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
@@ -4402,16 +4402,16 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J32" s="13">
         <v>0</v>
@@ -4457,13 +4457,13 @@
         <v>What is the meaning of "The dictates of my conscience"?</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="W32" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="X32" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Y32" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4486,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
@@ -4494,16 +4494,16 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J33" s="13">
         <v>1</v>
@@ -4572,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
@@ -4580,16 +4580,16 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J34" s="12">
         <v>1</v>
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
@@ -4666,16 +4666,16 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J35" s="12">
         <v>0</v>
@@ -4721,13 +4721,13 @@
         <v>What is the meaning of "I got the job through the good offices of a friend"?</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="W35" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Y35" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
@@ -4758,16 +4758,16 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J36" s="12">
         <v>0</v>
@@ -4813,13 +4813,13 @@
         <v>What is the meaning of "The upper reaches of society"?</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="X36" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Y36" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>21</v>
@@ -4850,16 +4850,16 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J37" s="12">
         <v>1</v>
@@ -4928,24 +4928,24 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J38" s="12">
         <v>1</v>
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>21</v>
@@ -5022,16 +5022,16 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J39" s="12">
         <v>0</v>
@@ -5077,13 +5077,13 @@
         <v>What is the meaning of "He was serially unfaithful"?</v>
       </c>
       <c r="V39" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="X39" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Y39" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5106,24 +5106,24 @@
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J40" s="12">
         <v>0</v>
@@ -5169,13 +5169,13 @@
         <v>What is the meaning of "My father snapped at me"?</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="X40" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Y40" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5198,24 +5198,24 @@
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J41" s="12">
         <v>0</v>
@@ -5261,13 +5261,13 @@
         <v>What is the meaning of "We need teachers with snap"?</v>
       </c>
       <c r="V41" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="X41" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Y41" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5290,24 +5290,24 @@
         <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J42" s="12">
         <v>0</v>
@@ -5353,13 +5353,13 @@
         <v>What is the meaning of "It was a snap decision"?</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="X42" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Y42" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5382,24 +5382,24 @@
         <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J43" s="12">
         <v>1</v>
@@ -5468,24 +5468,24 @@
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J44" s="12">
         <v>0</v>
@@ -5531,13 +5531,13 @@
         <v>What is the meaning of "He is snap-happy"?</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="X44" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Y44" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5560,24 +5560,24 @@
         <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J45" s="12">
         <v>1</v>
@@ -5646,24 +5646,24 @@
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J46" s="12">
         <v>0</v>
@@ -5709,13 +5709,13 @@
         <v>What is the meaning of "Tell him to snap out of his depression"?</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="X46" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Y46" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5738,24 +5738,24 @@
         <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J47" s="12">
         <v>0</v>
@@ -5801,13 +5801,13 @@
         <v>What is the meaning of "The best bargains were quickly snapped up"?</v>
       </c>
       <c r="V47" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="X47" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Y47" s="5" t="str">
         <f t="shared" si="6"/>

--- a/miniproject/template/Lectures/Lecture 1.xlsx
+++ b/miniproject/template/Lectures/Lecture 1.xlsx
@@ -40,7 +40,7 @@
     <t>Meaning</t>
   </si>
   <si>
-    <t>Meaning（中文）</t>
+    <t>Translation</t>
   </si>
   <si>
     <t>level_2</t>
@@ -1028,11 +1028,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1076,12 +1076,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1089,9 +1083,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1104,28 +1120,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,21 +1146,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1186,23 +1173,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1223,6 +1210,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1231,9 +1225,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,31 +1258,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,13 +1294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,7 +1306,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,19 +1348,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,43 +1390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,25 +1408,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,17 +1485,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1521,6 +1506,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1532,15 +1535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1560,6 +1554,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1574,113 +1579,102 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1689,49 +1683,49 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1778,13 +1772,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2108,8 +2102,8 @@
   <sheetPr/>
   <dimension ref="A1:AG187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X1" sqref="V1:X1"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66071428571429" defaultRowHeight="11.6"/>
